--- a/psychology/CBT_new/adult_critic.xlsx
+++ b/psychology/CBT_new/adult_critic.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Зрелый взрослый" sheetId="1" state="visible" r:id="rId3"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="124">
   <si>
     <t xml:space="preserve">Понятие</t>
   </si>
@@ -33,6 +33,9 @@
   </si>
   <si>
     <t xml:space="preserve">Почему сложно формулировать?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Конкретные действия</t>
   </si>
   <si>
     <t xml:space="preserve">Любовь</t>
@@ -54,6 +57,13 @@
 принять самого себя</t>
   </si>
   <si>
+    <t xml:space="preserve">1) Диалог с внутренним ребёнком: написать
+письма своей детской части, предлагая утешение,
+любовь и понимание за прошлые трудности.
+2) При заполнении дневника больше писать про
+эмоции, потребности и мысли (а не просто список дел).</t>
+  </si>
+  <si>
     <t xml:space="preserve">Внимание</t>
   </si>
   <si>
@@ -73,6 +83,13 @@
 сложно себя самого замечать</t>
   </si>
   <si>
+    <t xml:space="preserve">1) Отмечать личные достижения: небольшие
+успехи, такие как выполнение заданий или изучение
+чего-то нового (можно в составе дневника).
+2) Написание выдуманных историй, которые отражают мой
+внутренний мир. Это может помочь заметить себя.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Поддержка</t>
   </si>
   <si>
@@ -264,6 +281,9 @@
     <t xml:space="preserve">Примечание</t>
   </si>
   <si>
+    <t xml:space="preserve">Заметки после сессии</t>
+  </si>
+  <si>
     <t xml:space="preserve">Ты должен быть успешным программистом</t>
   </si>
   <si>
@@ -294,6 +314,9 @@
 сильные качества</t>
   </si>
   <si>
+    <t xml:space="preserve">Психотерапия как интерес к себе</t>
+  </si>
+  <si>
     <t xml:space="preserve">Ты скучный</t>
   </si>
   <si>
@@ -301,7 +324,14 @@
 или писал бы первым, чтобы пообщаться</t>
   </si>
   <si>
+    <t xml:space="preserve">Недостаточно насыщенная жизнь: мало живого общения,
+хобби, интересов, путешествий и нового опыта</t>
+  </si>
+  <si>
     <t xml:space="preserve">Ты глупый</t>
+  </si>
+  <si>
+    <t xml:space="preserve">бывший друг</t>
   </si>
   <si>
     <t xml:space="preserve">Тяжело оказалось справляться на подготовительных курсах
@@ -315,11 +345,7 @@
 приводили к разрыву отношений с человеком</t>
   </si>
   <si>
-    <t xml:space="preserve">Ты легко можешь обидеть</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Порой мне сложно учесть эмоциональность и ранимость других,
-поэтому могу обидеть человека ненамеренно </t>
+    <t xml:space="preserve">Единичные случаи неудачно сложившихся отношений</t>
   </si>
   <si>
     <t xml:space="preserve">Ты не умеешь дружить</t>
@@ -329,6 +355,9 @@
 чаще это оказывалось потребительским отношением</t>
   </si>
   <si>
+    <t xml:space="preserve">Выбор неподходящих людей для дружбы</t>
+  </si>
+  <si>
     <t xml:space="preserve">Ты мрачный</t>
   </si>
   <si>
@@ -363,6 +392,9 @@
     <t xml:space="preserve">Тебе нужно больше внимания уделять жене</t>
   </si>
   <si>
+    <t xml:space="preserve">жена</t>
+  </si>
+  <si>
     <t xml:space="preserve">Что это сделает её более счастливой,
 а значит будет меньше на меня обижаться</t>
   </si>
@@ -384,6 +416,9 @@
     <t xml:space="preserve">Ты плохой человек</t>
   </si>
   <si>
+    <t xml:space="preserve">бабушка</t>
+  </si>
+  <si>
     <t xml:space="preserve">Мнение, что делаю недостаточно много для остальных,
 что стоит думать о комфорте других людей</t>
   </si>
@@ -395,10 +430,10 @@
 нежелание других людей сближаться, они отдаляются</t>
   </si>
   <si>
+    <t xml:space="preserve">Опровегнуто на личном опыте общения с коллегами</t>
+  </si>
+  <si>
     <t xml:space="preserve">Ты ничтожный</t>
-  </si>
-  <si>
-    <t xml:space="preserve">бывший друг</t>
   </si>
   <si>
     <t xml:space="preserve">Постоянная критика со стороны бывшего друга,
@@ -412,6 +447,10 @@
 и без моего непосредственного участия</t>
   </si>
   <si>
+    <t xml:space="preserve">Эмоциональное выгорание на работе и чувство
+застревания в карьерном росте</t>
+  </si>
+  <si>
     <t xml:space="preserve">Ты должен больше заботиться о себе</t>
   </si>
   <si>
@@ -443,13 +482,6 @@
 я слишком замкнут и не ищу новых интересов</t>
   </si>
   <si>
-    <t xml:space="preserve">Ты должен перестать думать о плохом будущем</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Такие мысли нагнетают тоску и уныние,
-будущее видится тревожным и опасным</t>
-  </si>
-  <si>
     <t xml:space="preserve">Ты не достоин места в своей компании</t>
   </si>
   <si>
@@ -469,6 +501,9 @@
   <si>
     <t xml:space="preserve">Постояно разрывает между несколькими проектами,
 нет чёткой логики в выполнении дел</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Интенсивность интереса может меняться и это нормально</t>
   </si>
   <si>
     <t xml:space="preserve">Ты не достоин любви</t>
@@ -515,7 +550,7 @@
       <family val="0"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -525,7 +560,19 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFD8CE"/>
-        <bgColor rgb="FFFFFFCC"/>
+        <bgColor rgb="FFFFDBB6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFDBB6"/>
+        <bgColor rgb="FFFFD8CE"/>
       </patternFill>
     </fill>
   </fills>
@@ -619,12 +666,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="25">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -640,6 +691,10 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -648,7 +703,15 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -660,8 +723,12 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
@@ -674,6 +741,26 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
@@ -709,7 +796,7 @@
       <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFFFD8CE"/>
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
@@ -730,7 +817,7 @@
       <rgbColor rgb="FF99CCFF"/>
       <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFD8CE"/>
+      <rgbColor rgb="FFFFDBB6"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FF99CC00"/>
@@ -863,277 +950,296 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D30"/>
+  <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D18" activeCellId="0" sqref="D18"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E5" activeCellId="0" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="49.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="51.19"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="47.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="28.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="49.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="51.19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="47.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="55.5"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="55.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="5" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="6" t="s">
+    </row>
+    <row r="2" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="B2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="C2" s="8" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="55.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="5" t="s">
+      <c r="D2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="E2" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="6" t="s">
+    </row>
+    <row r="3" customFormat="false" ht="60.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="B3" s="8" t="s">
         <v>11</v>
       </c>
+      <c r="C3" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="55.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="7" t="s">
+      <c r="A4" s="7" t="s">
         <v>15</v>
       </c>
+      <c r="B4" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="10"/>
     </row>
     <row r="5" customFormat="false" ht="55.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="7" t="s">
+      <c r="A5" s="7" t="s">
         <v>19</v>
       </c>
+      <c r="B5" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="10"/>
     </row>
     <row r="6" customFormat="false" ht="55.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="7" t="s">
+      <c r="A6" s="7" t="s">
         <v>23</v>
       </c>
+      <c r="B6" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="10"/>
     </row>
     <row r="7" customFormat="false" ht="55.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" s="7" t="s">
+      <c r="A7" s="11" t="s">
         <v>27</v>
       </c>
+      <c r="B7" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="10"/>
     </row>
     <row r="8" customFormat="false" ht="55.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8" s="7" t="s">
+      <c r="A8" s="7" t="s">
         <v>31</v>
       </c>
+      <c r="B8" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="10"/>
     </row>
     <row r="9" customFormat="false" ht="55.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D9" s="7" t="s">
+      <c r="A9" s="7" t="s">
         <v>35</v>
       </c>
+      <c r="B9" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="10"/>
     </row>
     <row r="10" customFormat="false" ht="55.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="D10" s="7" t="s">
+      <c r="A10" s="7" t="s">
         <v>39</v>
       </c>
+      <c r="B10" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10" s="10"/>
     </row>
     <row r="11" customFormat="false" ht="55.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="D11" s="7" t="s">
+      <c r="A11" s="7" t="s">
         <v>43</v>
       </c>
+      <c r="B11" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E11" s="10"/>
     </row>
     <row r="12" customFormat="false" ht="55.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="D12" s="10" t="s">
+      <c r="A12" s="12" t="s">
         <v>47</v>
       </c>
+      <c r="B12" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E12" s="15"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="11"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="6"/>
+      <c r="A13" s="16"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="8"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="11"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="6"/>
+      <c r="A14" s="16"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="8"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="11"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="6"/>
+      <c r="A15" s="16"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="8"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="11"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="6"/>
+      <c r="A16" s="16"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="8"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="11"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="6"/>
+      <c r="A17" s="16"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="8"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="11"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="6"/>
+      <c r="A18" s="16"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="8"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="11"/>
-      <c r="B19" s="11"/>
-      <c r="C19" s="6"/>
+      <c r="A19" s="16"/>
+      <c r="B19" s="16"/>
+      <c r="C19" s="8"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="11"/>
-      <c r="B20" s="11"/>
-      <c r="C20" s="6"/>
+      <c r="A20" s="16"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="8"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="11"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="6"/>
+      <c r="A21" s="16"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="8"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="11"/>
-      <c r="B22" s="11"/>
-      <c r="C22" s="6"/>
+      <c r="A22" s="16"/>
+      <c r="B22" s="16"/>
+      <c r="C22" s="8"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="11"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="6"/>
+      <c r="A23" s="16"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="8"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="11"/>
-      <c r="B24" s="11"/>
-      <c r="C24" s="6"/>
+      <c r="A24" s="16"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="8"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="11"/>
-      <c r="B25" s="11"/>
-      <c r="C25" s="6"/>
+      <c r="A25" s="16"/>
+      <c r="B25" s="16"/>
+      <c r="C25" s="8"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="11"/>
-      <c r="B26" s="11"/>
-      <c r="C26" s="6"/>
+      <c r="A26" s="16"/>
+      <c r="B26" s="16"/>
+      <c r="C26" s="8"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="11"/>
-      <c r="B27" s="11"/>
-      <c r="C27" s="6"/>
+      <c r="A27" s="16"/>
+      <c r="B27" s="16"/>
+      <c r="C27" s="8"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="11"/>
-      <c r="B28" s="11"/>
-      <c r="C28" s="6"/>
+      <c r="A28" s="16"/>
+      <c r="B28" s="16"/>
+      <c r="C28" s="8"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="11"/>
-      <c r="B29" s="11"/>
-      <c r="C29" s="6"/>
+      <c r="A29" s="16"/>
+      <c r="B29" s="16"/>
+      <c r="C29" s="8"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="11"/>
-      <c r="B30" s="11"/>
-      <c r="C30" s="6"/>
+      <c r="A30" s="16"/>
+      <c r="B30" s="16"/>
+      <c r="C30" s="8"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -1151,348 +1257,370 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C30"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C35" activeCellId="0" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="12" width="43.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="12" width="15.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="12" width="60.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="17" width="43.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="17" width="15.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="17" width="60.1"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="B1" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="C1" s="13" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="2" s="14" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="11" t="s">
+      <c r="A1" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B1" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C1" s="18" t="s">
         <v>53</v>
       </c>
+      <c r="D1" s="18" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" s="19" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2" s="8"/>
     </row>
     <row r="3" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="C3" s="6" t="s">
+      <c r="A3" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="D3" s="8"/>
+    </row>
+    <row r="4" s="19" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="B4" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="D4" s="21" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" s="19" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="B5" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="D5" s="21" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" s="19" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="D6" s="8"/>
+    </row>
+    <row r="7" s="19" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="B7" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="D7" s="21" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="8" s="19" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="B8" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="C8" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="D8" s="21" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="9" s="19" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="D9" s="8"/>
+    </row>
+    <row r="10" s="19" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="B10" s="16" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="4" s="14" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="C4" s="6" t="s">
+      <c r="C10" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="D10" s="8"/>
+    </row>
+    <row r="11" s="19" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="D11" s="8"/>
+    </row>
+    <row r="12" s="19" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="D12" s="8"/>
+    </row>
+    <row r="13" s="19" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="D13" s="8"/>
+    </row>
+    <row r="14" s="19" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="D14" s="8"/>
+    </row>
+    <row r="15" s="19" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="D15" s="8"/>
+    </row>
+    <row r="16" s="19" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="B16" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="D16" s="8"/>
+    </row>
+    <row r="17" s="19" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="B17" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="C17" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="D17" s="21" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="18" s="19" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="B18" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="D18" s="8"/>
+    </row>
+    <row r="19" s="19" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="B19" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="C19" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="D19" s="21" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="20" s="19" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="B20" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="D20" s="8"/>
+    </row>
+    <row r="21" s="19" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="B21" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="D21" s="8"/>
+    </row>
+    <row r="22" s="19" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="B22" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="D22" s="8"/>
+    </row>
+    <row r="23" s="19" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="B23" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="D23" s="8"/>
+    </row>
+    <row r="24" s="19" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="B24" s="16" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="5" s="14" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="6" s="14" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="11" t="s">
+      <c r="C24" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="D24" s="8"/>
+    </row>
+    <row r="25" s="19" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="B25" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="D25" s="8"/>
+    </row>
+    <row r="26" s="19" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="B26" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="B6" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="7" s="14" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="8" s="14" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="9" s="14" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="10" s="14" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="11" s="14" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="12" s="14" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="13" s="14" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="B13" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="C13" s="6" t="s">
+      <c r="C26" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="D26" s="21" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="27" s="19" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="B27" s="16" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="14" s="14" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="B14" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="15" s="14" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="B15" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="16" s="14" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="B16" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="17" s="14" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="B17" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="18" s="14" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="B18" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="19" s="14" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="B19" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="20" s="14" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="B20" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="21" s="14" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="B21" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="22" s="14" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="B22" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="23" s="14" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="B23" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="24" s="14" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="B24" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="25" s="14" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="B25" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="26" s="14" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="B26" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="27" s="14" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="B27" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="28" s="14" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="B28" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="29" s="14" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="B29" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="30" s="14" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="B30" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>114</v>
-      </c>
+      <c r="C27" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="D27" s="8"/>
+    </row>
+    <row r="28" s="24" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="B28" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="C28" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="D28" s="23"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
